--- a/lib/Supporting_Files/Protractor User Stories.xlsx
+++ b/lib/Supporting_Files/Protractor User Stories.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert.woloszyn/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert.woloszyn/Projects/HighCode/JavaScript/ProtractorExperiments/lib/Supporting_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E9A16CE8-DDD3-7245-9624-478254E53BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E5E5A-AE46-E14D-BD24-ADB0C795CC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -464,24 +464,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -705,6 +687,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -719,12 +717,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -803,19 +803,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:I23" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="11" totalsRowBorderDxfId="9" headerRowCellStyle="Heading 1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tasks" displayName="Tasks" ref="B2:I23" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9" totalsRowBorderDxfId="8" headerRowCellStyle="Heading 1">
   <autoFilter ref="B2:I23" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8" dataCellStyle="Hyperlink"/>
-    <tableColumn id="2" xr3:uid="{5DF62424-71EA-5D4C-8038-BD9CA73E9229}" name="Column1" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START DATE" dataDxfId="6" dataCellStyle="Date"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DUE DATE" dataDxfId="5" dataCellStyle="Date"/>
-    <tableColumn id="3" xr3:uid="{7B49D59C-E86E-7F48-B3CB-CB3BCF3EC2D2}" name="State" dataDxfId="4" dataCellStyle="Date"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="2" dataCellStyle="Done">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="7" dataCellStyle="Hyperlink"/>
+    <tableColumn id="2" xr3:uid="{5DF62424-71EA-5D4C-8038-BD9CA73E9229}" name="Column1" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="START DATE" dataDxfId="5" dataCellStyle="Date"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="DUE DATE" dataDxfId="4" dataCellStyle="Date"/>
+    <tableColumn id="3" xr3:uid="{7B49D59C-E86E-7F48-B3CB-CB3BCF3EC2D2}" name="State" dataDxfId="3" dataCellStyle="Date"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="% COMPLETE" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="DONE" dataDxfId="1" dataCellStyle="Done">
       <calculatedColumnFormula>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comment" dataDxfId="1" dataCellStyle="Table Text"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Comment" dataDxfId="0" dataCellStyle="Table Text"/>
   </tableColumns>
   <tableStyleInfo name="Task List" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1104,14 +1104,14 @@
         <v>5</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G3" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="15">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="16"/>
     </row>
@@ -1130,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="15">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
@@ -1150,14 +1150,14 @@
         <v>5</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="15">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="16"/>
     </row>

--- a/lib/Supporting_Files/Protractor User Stories.xlsx
+++ b/lib/Supporting_Files/Protractor User Stories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/albert.woloszyn/Projects/HighCode/JavaScript/ProtractorExperiments/lib/Supporting_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B25E5E5A-AE46-E14D-BD24-ADB0C795CC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A069270B-DB5F-BA4D-AEF1-141EDB1E7BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="B1:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="33" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,7 @@
         <v>34</v>
       </c>
       <c r="G4" s="14">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="15">
         <f>--(Tasks[[#This Row],[% COMPLETE]]&gt;=1)</f>
